--- a/curation/draft/package12/R12_BC_SDTM_QRS_HAM-A.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_HAM-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9AC4A1-4ADC-4FB1-B3D1-DA49EC5088E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915B1A3-F52F-475A-ABCE-361F4C4968E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,9 +324,6 @@
     <t>HAMA1-Anxious Mood; HAMA101; HAMA - Anxious Mood</t>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>Hamilton Anxiety Rating Scale (HAMA) Anxious mood; worries, anticipation of the worst, fearful anticipation, irritability.</t>
   </si>
   <si>
@@ -652,6 +649,9 @@
   </si>
   <si>
     <t>HAMA1-Total Score</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>94</v>
@@ -1136,13 +1136,13 @@
         <v>94</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1152,33 +1152,33 @@
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="C4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>92</v>
@@ -1199,10 +1199,10 @@
         <v>96</v>
       </c>
       <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
@@ -1217,12 +1217,12 @@
         <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>92</v>
@@ -1243,10 +1243,10 @@
         <v>96</v>
       </c>
       <c r="H7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
@@ -1261,12 +1261,12 @@
         <v>54</v>
       </c>
       <c r="Q7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>92</v>
@@ -1287,10 +1287,10 @@
         <v>96</v>
       </c>
       <c r="H8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
@@ -1305,12 +1305,12 @@
         <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>92</v>
@@ -1331,10 +1331,10 @@
         <v>96</v>
       </c>
       <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -1351,31 +1351,31 @@
     </row>
     <row r="10" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
         <v>94</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
@@ -1390,36 +1390,36 @@
         <v>21</v>
       </c>
       <c r="Q10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>94</v>
       </c>
       <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -1434,36 +1434,36 @@
         <v>54</v>
       </c>
       <c r="Q11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
         <v>94</v>
       </c>
       <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
@@ -1478,36 +1478,36 @@
         <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
       </c>
       <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="M13" t="s">
         <v>22</v>
@@ -1524,31 +1524,31 @@
     </row>
     <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
       </c>
       <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
@@ -1563,36 +1563,36 @@
         <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>94</v>
       </c>
       <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
@@ -1607,36 +1607,36 @@
         <v>54</v>
       </c>
       <c r="Q15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>94</v>
       </c>
       <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="M16" t="s">
         <v>51</v>
@@ -1651,36 +1651,36 @@
         <v>54</v>
       </c>
       <c r="Q16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>94</v>
       </c>
       <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="M17" t="s">
         <v>22</v>
@@ -1697,31 +1697,31 @@
     </row>
     <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
       </c>
       <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
@@ -1736,36 +1736,36 @@
         <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>94</v>
       </c>
       <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="H19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
@@ -1780,36 +1780,36 @@
         <v>54</v>
       </c>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
         <v>94</v>
       </c>
       <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
@@ -1824,36 +1824,36 @@
         <v>54</v>
       </c>
       <c r="Q20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>94</v>
       </c>
       <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="M21" t="s">
         <v>22</v>
@@ -1870,31 +1870,31 @@
     </row>
     <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
         <v>94</v>
       </c>
       <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="M22" t="s">
         <v>20</v>
@@ -1909,36 +1909,36 @@
         <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
       </c>
       <c r="F23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="M23" t="s">
         <v>19</v>
@@ -1953,36 +1953,36 @@
         <v>54</v>
       </c>
       <c r="Q23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
         <v>94</v>
       </c>
       <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
@@ -1997,36 +1997,36 @@
         <v>54</v>
       </c>
       <c r="Q24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
         <v>94</v>
       </c>
       <c r="F25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
@@ -2043,31 +2043,31 @@
     </row>
     <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>94</v>
       </c>
       <c r="F26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
@@ -2082,36 +2082,36 @@
         <v>21</v>
       </c>
       <c r="Q26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
         <v>94</v>
       </c>
       <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
@@ -2126,36 +2126,36 @@
         <v>54</v>
       </c>
       <c r="Q27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
         <v>94</v>
       </c>
       <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="M28" t="s">
         <v>51</v>
@@ -2170,36 +2170,36 @@
         <v>54</v>
       </c>
       <c r="Q28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
         <v>94</v>
       </c>
       <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="M29" t="s">
         <v>22</v>
@@ -2216,31 +2216,31 @@
     </row>
     <row r="30" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
         <v>94</v>
       </c>
       <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H30" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
@@ -2255,36 +2255,36 @@
         <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
         <v>94</v>
       </c>
       <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -2299,36 +2299,36 @@
         <v>54</v>
       </c>
       <c r="Q31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
       </c>
       <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -2343,36 +2343,36 @@
         <v>54</v>
       </c>
       <c r="Q32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
         <v>94</v>
       </c>
       <c r="F33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
@@ -2389,31 +2389,31 @@
     </row>
     <row r="34" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
         <v>94</v>
       </c>
       <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="M34" t="s">
         <v>20</v>
@@ -2428,36 +2428,36 @@
         <v>21</v>
       </c>
       <c r="Q34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
         <v>94</v>
       </c>
       <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H35" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="M35" t="s">
         <v>19</v>
@@ -2472,36 +2472,36 @@
         <v>54</v>
       </c>
       <c r="Q35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>94</v>
       </c>
       <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H36" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="M36" t="s">
         <v>51</v>
@@ -2516,36 +2516,36 @@
         <v>54</v>
       </c>
       <c r="Q36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
         <v>94</v>
       </c>
       <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="M37" t="s">
         <v>22</v>
@@ -2562,31 +2562,31 @@
     </row>
     <row r="38" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
         <v>94</v>
       </c>
       <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H38" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M38" t="s">
         <v>20</v>
@@ -2601,36 +2601,36 @@
         <v>21</v>
       </c>
       <c r="Q38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
         <v>94</v>
       </c>
       <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
@@ -2645,36 +2645,36 @@
         <v>54</v>
       </c>
       <c r="Q39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
         <v>94</v>
       </c>
       <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M40" t="s">
         <v>51</v>
@@ -2689,36 +2689,36 @@
         <v>54</v>
       </c>
       <c r="Q40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
         <v>94</v>
       </c>
       <c r="F41" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H41" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M41" t="s">
         <v>22</v>
@@ -2735,31 +2735,31 @@
     </row>
     <row r="42" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
         <v>94</v>
       </c>
       <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="H42" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M42" t="s">
         <v>20</v>
@@ -2774,36 +2774,36 @@
         <v>21</v>
       </c>
       <c r="Q42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
         <v>94</v>
       </c>
       <c r="F43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="H43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M43" t="s">
         <v>19</v>
@@ -2818,36 +2818,36 @@
         <v>54</v>
       </c>
       <c r="Q43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
         <v>94</v>
       </c>
       <c r="F44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" t="s">
+        <v>206</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="H44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M44" t="s">
         <v>51</v>
@@ -2862,36 +2862,36 @@
         <v>54</v>
       </c>
       <c r="Q44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
         <v>94</v>
       </c>
       <c r="F45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="H45" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M45" t="s">
         <v>22</v>
@@ -2908,31 +2908,31 @@
     </row>
     <row r="46" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
         <v>94</v>
       </c>
       <c r="F46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" t="s">
+        <v>206</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M46" t="s">
         <v>20</v>
@@ -2947,36 +2947,36 @@
         <v>21</v>
       </c>
       <c r="Q46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>94</v>
       </c>
       <c r="F47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H47" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M47" t="s">
         <v>19</v>
@@ -2991,36 +2991,36 @@
         <v>54</v>
       </c>
       <c r="Q47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
         <v>94</v>
       </c>
       <c r="F48" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M48" t="s">
         <v>51</v>
@@ -3035,36 +3035,36 @@
         <v>54</v>
       </c>
       <c r="Q48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
         <v>94</v>
       </c>
       <c r="F49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H49" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M49" t="s">
         <v>22</v>
@@ -3081,31 +3081,31 @@
     </row>
     <row r="50" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
         <v>94</v>
       </c>
       <c r="F50" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="H50" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="M50" t="s">
         <v>20</v>
@@ -3120,36 +3120,36 @@
         <v>21</v>
       </c>
       <c r="Q50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
         <v>94</v>
       </c>
       <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="H51" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="M51" t="s">
         <v>19</v>
@@ -3164,36 +3164,36 @@
         <v>54</v>
       </c>
       <c r="Q51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
         <v>94</v>
       </c>
       <c r="F52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="H52" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="M52" t="s">
         <v>51</v>
@@ -3208,36 +3208,36 @@
         <v>54</v>
       </c>
       <c r="Q52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
         <v>94</v>
       </c>
       <c r="F53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="H53" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="M53" t="s">
         <v>22</v>
@@ -3254,31 +3254,31 @@
     </row>
     <row r="54" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
         <v>94</v>
       </c>
       <c r="F54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="H54" t="s">
-        <v>97</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="M54" t="s">
         <v>20</v>
@@ -3293,36 +3293,36 @@
         <v>21</v>
       </c>
       <c r="Q54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
         <v>94</v>
       </c>
       <c r="F55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" t="s">
+        <v>206</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="H55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="M55" t="s">
         <v>19</v>
@@ -3337,36 +3337,36 @@
         <v>54</v>
       </c>
       <c r="Q55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
         <v>94</v>
       </c>
       <c r="F56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" t="s">
+        <v>206</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="H56" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="M56" t="s">
         <v>51</v>
@@ -3381,36 +3381,36 @@
         <v>54</v>
       </c>
       <c r="Q56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
         <v>94</v>
       </c>
       <c r="F57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="H57" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="M57" t="s">
         <v>22</v>
@@ -3427,31 +3427,31 @@
     </row>
     <row r="58" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
         <v>94</v>
       </c>
       <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" t="s">
+        <v>206</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="H58" t="s">
-        <v>97</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="M58" t="s">
         <v>20</v>
@@ -3466,36 +3466,36 @@
         <v>21</v>
       </c>
       <c r="Q58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
         <v>94</v>
       </c>
       <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" t="s">
+        <v>206</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="H59" t="s">
-        <v>97</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="M59" t="s">
         <v>19</v>
@@ -3510,36 +3510,36 @@
         <v>54</v>
       </c>
       <c r="Q59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
         <v>94</v>
       </c>
       <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" t="s">
+        <v>206</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="H60" t="s">
-        <v>97</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="M60" t="s">
         <v>51</v>
@@ -3554,36 +3554,36 @@
         <v>54</v>
       </c>
       <c r="Q60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
         <v>94</v>
       </c>
       <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="H61" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="M61" t="s">
         <v>22</v>
@@ -3600,31 +3600,31 @@
     </row>
     <row r="62" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
         <v>94</v>
       </c>
       <c r="F62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H62" t="s">
-        <v>97</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="M62" t="s">
         <v>20</v>
@@ -3644,31 +3644,31 @@
     </row>
     <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
         <v>94</v>
       </c>
       <c r="F63" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="M63" t="s">
         <v>19</v>
@@ -3688,31 +3688,31 @@
     </row>
     <row r="64" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
         <v>94</v>
       </c>
       <c r="F64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H64" t="s">
-        <v>97</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
@@ -3727,36 +3727,36 @@
         <v>54</v>
       </c>
       <c r="Q64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
         <v>94</v>
       </c>
       <c r="F65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H65" t="s">
-        <v>97</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="M65" t="s">
         <v>22</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -3939,25 +3939,25 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" t="s">
         <v>169</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
         <v>170</v>
       </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>171</v>
-      </c>
-      <c r="M2" t="s">
-        <v>172</v>
       </c>
       <c r="P2" t="s">
         <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R2" t="s">
         <v>62</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -4010,25 +4010,25 @@
         <v>60</v>
       </c>
       <c r="H3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
         <v>169</v>
-      </c>
-      <c r="I3" t="s">
-        <v>170</v>
       </c>
       <c r="J3" t="s">
         <v>65</v>
       </c>
       <c r="L3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" t="s">
         <v>173</v>
-      </c>
-      <c r="M3" t="s">
-        <v>174</v>
       </c>
       <c r="P3" t="s">
         <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R3" t="s">
         <v>69</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
@@ -4087,10 +4087,10 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
         <v>169</v>
-      </c>
-      <c r="I4" t="s">
-        <v>170</v>
       </c>
       <c r="J4" t="s">
         <v>72</v>
@@ -4102,10 +4102,10 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R4" t="s">
         <v>69</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
@@ -4161,19 +4161,19 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" t="s">
         <v>169</v>
-      </c>
-      <c r="I5" t="s">
-        <v>170</v>
       </c>
       <c r="J5" t="s">
         <v>76</v>
       </c>
       <c r="L5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" t="s">
         <v>175</v>
-      </c>
-      <c r="M5" t="s">
-        <v>176</v>
       </c>
       <c r="R5" t="s">
         <v>69</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -4235,19 +4235,19 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" t="s">
         <v>169</v>
-      </c>
-      <c r="I6" t="s">
-        <v>170</v>
       </c>
       <c r="J6" t="s">
         <v>83</v>
       </c>
       <c r="L6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" t="s">
         <v>177</v>
-      </c>
-      <c r="M6" t="s">
-        <v>178</v>
       </c>
       <c r="R6" t="s">
         <v>69</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -4306,19 +4306,19 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" t="s">
         <v>169</v>
-      </c>
-      <c r="I7" t="s">
-        <v>170</v>
       </c>
       <c r="J7" t="s">
         <v>86</v>
       </c>
       <c r="L7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" t="s">
         <v>177</v>
-      </c>
-      <c r="M7" t="s">
-        <v>178</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -4377,10 +4377,10 @@
         <v>60</v>
       </c>
       <c r="H8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" t="s">
         <v>169</v>
-      </c>
-      <c r="I8" t="s">
-        <v>170</v>
       </c>
       <c r="J8" t="s">
         <v>87</v>
@@ -4415,10 +4415,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -4430,25 +4430,25 @@
         <v>60</v>
       </c>
       <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
         <v>179</v>
       </c>
-      <c r="I9" t="s">
-        <v>180</v>
-      </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" t="s">
         <v>171</v>
       </c>
-      <c r="M9" t="s">
-        <v>172</v>
-      </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R9" t="s">
         <v>62</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -4501,25 +4501,25 @@
         <v>60</v>
       </c>
       <c r="H10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" t="s">
         <v>179</v>
-      </c>
-      <c r="I10" t="s">
-        <v>180</v>
       </c>
       <c r="J10" t="s">
         <v>65</v>
       </c>
       <c r="L10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" t="s">
         <v>173</v>
       </c>
-      <c r="M10" t="s">
-        <v>174</v>
-      </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R10" t="s">
         <v>69</v>
@@ -4560,10 +4560,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -4578,10 +4578,10 @@
         <v>60</v>
       </c>
       <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" t="s">
         <v>179</v>
-      </c>
-      <c r="I11" t="s">
-        <v>180</v>
       </c>
       <c r="J11" t="s">
         <v>72</v>
@@ -4593,10 +4593,10 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R11" t="s">
         <v>69</v>
@@ -4634,10 +4634,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -4652,19 +4652,19 @@
         <v>60</v>
       </c>
       <c r="H12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" t="s">
         <v>179</v>
-      </c>
-      <c r="I12" t="s">
-        <v>180</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
       </c>
       <c r="L12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" t="s">
         <v>175</v>
-      </c>
-      <c r="M12" t="s">
-        <v>176</v>
       </c>
       <c r="R12" t="s">
         <v>69</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -4726,19 +4726,19 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" t="s">
         <v>179</v>
-      </c>
-      <c r="I13" t="s">
-        <v>180</v>
       </c>
       <c r="J13" t="s">
         <v>83</v>
       </c>
       <c r="L13" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" t="s">
         <v>177</v>
-      </c>
-      <c r="M13" t="s">
-        <v>178</v>
       </c>
       <c r="R13" t="s">
         <v>69</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -4797,19 +4797,19 @@
         <v>60</v>
       </c>
       <c r="H14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" t="s">
         <v>179</v>
-      </c>
-      <c r="I14" t="s">
-        <v>180</v>
       </c>
       <c r="J14" t="s">
         <v>86</v>
       </c>
       <c r="L14" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" t="s">
         <v>177</v>
-      </c>
-      <c r="M14" t="s">
-        <v>178</v>
       </c>
       <c r="R14" t="s">
         <v>69</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -4868,10 +4868,10 @@
         <v>60</v>
       </c>
       <c r="H15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" t="s">
         <v>179</v>
-      </c>
-      <c r="I15" t="s">
-        <v>180</v>
       </c>
       <c r="J15" t="s">
         <v>87</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
@@ -4921,25 +4921,25 @@
         <v>60</v>
       </c>
       <c r="H16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" t="s">
         <v>181</v>
       </c>
-      <c r="I16" t="s">
-        <v>182</v>
-      </c>
       <c r="J16" t="s">
         <v>61</v>
       </c>
       <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="s">
         <v>171</v>
       </c>
-      <c r="M16" t="s">
-        <v>172</v>
-      </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" t="s">
         <v>62</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
@@ -4992,25 +4992,25 @@
         <v>60</v>
       </c>
       <c r="H17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" t="s">
         <v>181</v>
-      </c>
-      <c r="I17" t="s">
-        <v>182</v>
       </c>
       <c r="J17" t="s">
         <v>65</v>
       </c>
       <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="s">
         <v>173</v>
       </c>
-      <c r="M17" t="s">
-        <v>174</v>
-      </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R17" t="s">
         <v>69</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -5069,10 +5069,10 @@
         <v>60</v>
       </c>
       <c r="H18" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" t="s">
         <v>181</v>
-      </c>
-      <c r="I18" t="s">
-        <v>182</v>
       </c>
       <c r="J18" t="s">
         <v>72</v>
@@ -5084,10 +5084,10 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R18" t="s">
         <v>69</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -5143,19 +5143,19 @@
         <v>60</v>
       </c>
       <c r="H19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" t="s">
         <v>181</v>
-      </c>
-      <c r="I19" t="s">
-        <v>182</v>
       </c>
       <c r="J19" t="s">
         <v>76</v>
       </c>
       <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="s">
         <v>175</v>
-      </c>
-      <c r="M19" t="s">
-        <v>176</v>
       </c>
       <c r="R19" t="s">
         <v>69</v>
@@ -5199,10 +5199,10 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -5217,19 +5217,19 @@
         <v>60</v>
       </c>
       <c r="H20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" t="s">
         <v>181</v>
-      </c>
-      <c r="I20" t="s">
-        <v>182</v>
       </c>
       <c r="J20" t="s">
         <v>83</v>
       </c>
       <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="s">
         <v>177</v>
-      </c>
-      <c r="M20" t="s">
-        <v>178</v>
       </c>
       <c r="R20" t="s">
         <v>69</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -5288,19 +5288,19 @@
         <v>60</v>
       </c>
       <c r="H21" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" t="s">
         <v>181</v>
-      </c>
-      <c r="I21" t="s">
-        <v>182</v>
       </c>
       <c r="J21" t="s">
         <v>86</v>
       </c>
       <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="s">
         <v>177</v>
-      </c>
-      <c r="M21" t="s">
-        <v>178</v>
       </c>
       <c r="R21" t="s">
         <v>69</v>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -5359,10 +5359,10 @@
         <v>60</v>
       </c>
       <c r="H22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" t="s">
         <v>181</v>
-      </c>
-      <c r="I22" t="s">
-        <v>182</v>
       </c>
       <c r="J22" t="s">
         <v>87</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
@@ -5412,25 +5412,25 @@
         <v>60</v>
       </c>
       <c r="H23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I23" t="s">
         <v>183</v>
       </c>
-      <c r="I23" t="s">
-        <v>184</v>
-      </c>
       <c r="J23" t="s">
         <v>61</v>
       </c>
       <c r="L23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" t="s">
         <v>171</v>
       </c>
-      <c r="M23" t="s">
-        <v>172</v>
-      </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R23" t="s">
         <v>62</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -5483,25 +5483,25 @@
         <v>60</v>
       </c>
       <c r="H24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" t="s">
         <v>183</v>
-      </c>
-      <c r="I24" t="s">
-        <v>184</v>
       </c>
       <c r="J24" t="s">
         <v>65</v>
       </c>
       <c r="L24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" t="s">
         <v>173</v>
       </c>
-      <c r="M24" t="s">
-        <v>174</v>
-      </c>
       <c r="P24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R24" t="s">
         <v>69</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -5560,10 +5560,10 @@
         <v>60</v>
       </c>
       <c r="H25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" t="s">
         <v>183</v>
-      </c>
-      <c r="I25" t="s">
-        <v>184</v>
       </c>
       <c r="J25" t="s">
         <v>72</v>
@@ -5575,10 +5575,10 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R25" t="s">
         <v>69</v>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -5634,19 +5634,19 @@
         <v>60</v>
       </c>
       <c r="H26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" t="s">
         <v>183</v>
-      </c>
-      <c r="I26" t="s">
-        <v>184</v>
       </c>
       <c r="J26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" t="s">
         <v>175</v>
-      </c>
-      <c r="M26" t="s">
-        <v>176</v>
       </c>
       <c r="R26" t="s">
         <v>69</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -5708,19 +5708,19 @@
         <v>60</v>
       </c>
       <c r="H27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" t="s">
         <v>183</v>
-      </c>
-      <c r="I27" t="s">
-        <v>184</v>
       </c>
       <c r="J27" t="s">
         <v>83</v>
       </c>
       <c r="L27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" t="s">
         <v>177</v>
-      </c>
-      <c r="M27" t="s">
-        <v>178</v>
       </c>
       <c r="R27" t="s">
         <v>69</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -5779,19 +5779,19 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" t="s">
         <v>183</v>
-      </c>
-      <c r="I28" t="s">
-        <v>184</v>
       </c>
       <c r="J28" t="s">
         <v>86</v>
       </c>
       <c r="L28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" t="s">
         <v>177</v>
-      </c>
-      <c r="M28" t="s">
-        <v>178</v>
       </c>
       <c r="R28" t="s">
         <v>69</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -5850,10 +5850,10 @@
         <v>60</v>
       </c>
       <c r="H29" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" t="s">
         <v>183</v>
-      </c>
-      <c r="I29" t="s">
-        <v>184</v>
       </c>
       <c r="J29" t="s">
         <v>87</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
         <v>58</v>
@@ -5903,25 +5903,25 @@
         <v>60</v>
       </c>
       <c r="H30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I30" t="s">
         <v>185</v>
       </c>
-      <c r="I30" t="s">
-        <v>186</v>
-      </c>
       <c r="J30" t="s">
         <v>61</v>
       </c>
       <c r="L30" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" t="s">
         <v>171</v>
       </c>
-      <c r="M30" t="s">
-        <v>172</v>
-      </c>
       <c r="P30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R30" t="s">
         <v>62</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
@@ -5974,25 +5974,25 @@
         <v>60</v>
       </c>
       <c r="H31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" t="s">
         <v>185</v>
-      </c>
-      <c r="I31" t="s">
-        <v>186</v>
       </c>
       <c r="J31" t="s">
         <v>65</v>
       </c>
       <c r="L31" t="s">
+        <v>172</v>
+      </c>
+      <c r="M31" t="s">
         <v>173</v>
       </c>
-      <c r="M31" t="s">
-        <v>174</v>
-      </c>
       <c r="P31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R31" t="s">
         <v>69</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
@@ -6051,10 +6051,10 @@
         <v>60</v>
       </c>
       <c r="H32" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" t="s">
         <v>185</v>
-      </c>
-      <c r="I32" t="s">
-        <v>186</v>
       </c>
       <c r="J32" t="s">
         <v>72</v>
@@ -6066,10 +6066,10 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R32" t="s">
         <v>69</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
@@ -6125,19 +6125,19 @@
         <v>60</v>
       </c>
       <c r="H33" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" t="s">
         <v>185</v>
-      </c>
-      <c r="I33" t="s">
-        <v>186</v>
       </c>
       <c r="J33" t="s">
         <v>76</v>
       </c>
       <c r="L33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" t="s">
         <v>175</v>
-      </c>
-      <c r="M33" t="s">
-        <v>176</v>
       </c>
       <c r="R33" t="s">
         <v>69</v>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -6199,19 +6199,19 @@
         <v>60</v>
       </c>
       <c r="H34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" t="s">
         <v>185</v>
-      </c>
-      <c r="I34" t="s">
-        <v>186</v>
       </c>
       <c r="J34" t="s">
         <v>83</v>
       </c>
       <c r="L34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" t="s">
         <v>177</v>
-      </c>
-      <c r="M34" t="s">
-        <v>178</v>
       </c>
       <c r="R34" t="s">
         <v>69</v>
@@ -6252,10 +6252,10 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -6270,19 +6270,19 @@
         <v>60</v>
       </c>
       <c r="H35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" t="s">
         <v>185</v>
-      </c>
-      <c r="I35" t="s">
-        <v>186</v>
       </c>
       <c r="J35" t="s">
         <v>86</v>
       </c>
       <c r="L35" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" t="s">
         <v>177</v>
-      </c>
-      <c r="M35" t="s">
-        <v>178</v>
       </c>
       <c r="R35" t="s">
         <v>69</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -6341,10 +6341,10 @@
         <v>60</v>
       </c>
       <c r="H36" t="s">
+        <v>184</v>
+      </c>
+      <c r="I36" t="s">
         <v>185</v>
-      </c>
-      <c r="I36" t="s">
-        <v>186</v>
       </c>
       <c r="J36" t="s">
         <v>87</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>58</v>
@@ -6394,25 +6394,25 @@
         <v>60</v>
       </c>
       <c r="H37" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" t="s">
         <v>187</v>
       </c>
-      <c r="I37" t="s">
-        <v>188</v>
-      </c>
       <c r="J37" t="s">
         <v>61</v>
       </c>
       <c r="L37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M37" t="s">
         <v>171</v>
       </c>
-      <c r="M37" t="s">
-        <v>172</v>
-      </c>
       <c r="P37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R37" t="s">
         <v>62</v>
@@ -6450,10 +6450,10 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
         <v>58</v>
@@ -6465,25 +6465,25 @@
         <v>60</v>
       </c>
       <c r="H38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" t="s">
         <v>187</v>
-      </c>
-      <c r="I38" t="s">
-        <v>188</v>
       </c>
       <c r="J38" t="s">
         <v>65</v>
       </c>
       <c r="L38" t="s">
+        <v>172</v>
+      </c>
+      <c r="M38" t="s">
         <v>173</v>
       </c>
-      <c r="M38" t="s">
-        <v>174</v>
-      </c>
       <c r="P38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R38" t="s">
         <v>69</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -6542,10 +6542,10 @@
         <v>60</v>
       </c>
       <c r="H39" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" t="s">
         <v>187</v>
-      </c>
-      <c r="I39" t="s">
-        <v>188</v>
       </c>
       <c r="J39" t="s">
         <v>72</v>
@@ -6557,10 +6557,10 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R39" t="s">
         <v>69</v>
@@ -6598,10 +6598,10 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -6616,19 +6616,19 @@
         <v>60</v>
       </c>
       <c r="H40" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" t="s">
         <v>187</v>
-      </c>
-      <c r="I40" t="s">
-        <v>188</v>
       </c>
       <c r="J40" t="s">
         <v>76</v>
       </c>
       <c r="L40" t="s">
+        <v>174</v>
+      </c>
+      <c r="M40" t="s">
         <v>175</v>
-      </c>
-      <c r="M40" t="s">
-        <v>176</v>
       </c>
       <c r="R40" t="s">
         <v>69</v>
@@ -6672,10 +6672,10 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -6690,19 +6690,19 @@
         <v>60</v>
       </c>
       <c r="H41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" t="s">
         <v>187</v>
-      </c>
-      <c r="I41" t="s">
-        <v>188</v>
       </c>
       <c r="J41" t="s">
         <v>83</v>
       </c>
       <c r="L41" t="s">
+        <v>176</v>
+      </c>
+      <c r="M41" t="s">
         <v>177</v>
-      </c>
-      <c r="M41" t="s">
-        <v>178</v>
       </c>
       <c r="R41" t="s">
         <v>69</v>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
@@ -6761,19 +6761,19 @@
         <v>60</v>
       </c>
       <c r="H42" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" t="s">
         <v>187</v>
-      </c>
-      <c r="I42" t="s">
-        <v>188</v>
       </c>
       <c r="J42" t="s">
         <v>86</v>
       </c>
       <c r="L42" t="s">
+        <v>176</v>
+      </c>
+      <c r="M42" t="s">
         <v>177</v>
-      </c>
-      <c r="M42" t="s">
-        <v>178</v>
       </c>
       <c r="R42" t="s">
         <v>69</v>
@@ -6814,10 +6814,10 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -6832,10 +6832,10 @@
         <v>60</v>
       </c>
       <c r="H43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" t="s">
         <v>187</v>
-      </c>
-      <c r="I43" t="s">
-        <v>188</v>
       </c>
       <c r="J43" t="s">
         <v>87</v>
@@ -6870,10 +6870,10 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
         <v>58</v>
@@ -6885,25 +6885,25 @@
         <v>60</v>
       </c>
       <c r="H44" t="s">
+        <v>188</v>
+      </c>
+      <c r="I44" t="s">
         <v>189</v>
       </c>
-      <c r="I44" t="s">
-        <v>190</v>
-      </c>
       <c r="J44" t="s">
         <v>61</v>
       </c>
       <c r="L44" t="s">
+        <v>170</v>
+      </c>
+      <c r="M44" t="s">
         <v>171</v>
       </c>
-      <c r="M44" t="s">
-        <v>172</v>
-      </c>
       <c r="P44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R44" t="s">
         <v>62</v>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
         <v>58</v>
@@ -6956,25 +6956,25 @@
         <v>60</v>
       </c>
       <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" t="s">
         <v>189</v>
-      </c>
-      <c r="I45" t="s">
-        <v>190</v>
       </c>
       <c r="J45" t="s">
         <v>65</v>
       </c>
       <c r="L45" t="s">
+        <v>172</v>
+      </c>
+      <c r="M45" t="s">
         <v>173</v>
       </c>
-      <c r="M45" t="s">
-        <v>174</v>
-      </c>
       <c r="P45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R45" t="s">
         <v>69</v>
@@ -7015,10 +7015,10 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
@@ -7033,10 +7033,10 @@
         <v>60</v>
       </c>
       <c r="H46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" t="s">
         <v>189</v>
-      </c>
-      <c r="I46" t="s">
-        <v>190</v>
       </c>
       <c r="J46" t="s">
         <v>72</v>
@@ -7048,10 +7048,10 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R46" t="s">
         <v>69</v>
@@ -7089,10 +7089,10 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
@@ -7107,19 +7107,19 @@
         <v>60</v>
       </c>
       <c r="H47" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" t="s">
         <v>189</v>
-      </c>
-      <c r="I47" t="s">
-        <v>190</v>
       </c>
       <c r="J47" t="s">
         <v>76</v>
       </c>
       <c r="L47" t="s">
+        <v>174</v>
+      </c>
+      <c r="M47" t="s">
         <v>175</v>
-      </c>
-      <c r="M47" t="s">
-        <v>176</v>
       </c>
       <c r="R47" t="s">
         <v>69</v>
@@ -7163,10 +7163,10 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -7181,19 +7181,19 @@
         <v>60</v>
       </c>
       <c r="H48" t="s">
+        <v>188</v>
+      </c>
+      <c r="I48" t="s">
         <v>189</v>
-      </c>
-      <c r="I48" t="s">
-        <v>190</v>
       </c>
       <c r="J48" t="s">
         <v>83</v>
       </c>
       <c r="L48" t="s">
+        <v>176</v>
+      </c>
+      <c r="M48" t="s">
         <v>177</v>
-      </c>
-      <c r="M48" t="s">
-        <v>178</v>
       </c>
       <c r="R48" t="s">
         <v>69</v>
@@ -7234,10 +7234,10 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -7252,19 +7252,19 @@
         <v>60</v>
       </c>
       <c r="H49" t="s">
+        <v>188</v>
+      </c>
+      <c r="I49" t="s">
         <v>189</v>
-      </c>
-      <c r="I49" t="s">
-        <v>190</v>
       </c>
       <c r="J49" t="s">
         <v>86</v>
       </c>
       <c r="L49" t="s">
+        <v>176</v>
+      </c>
+      <c r="M49" t="s">
         <v>177</v>
-      </c>
-      <c r="M49" t="s">
-        <v>178</v>
       </c>
       <c r="R49" t="s">
         <v>69</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
@@ -7323,10 +7323,10 @@
         <v>60</v>
       </c>
       <c r="H50" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" t="s">
         <v>189</v>
-      </c>
-      <c r="I50" t="s">
-        <v>190</v>
       </c>
       <c r="J50" t="s">
         <v>87</v>
@@ -7361,10 +7361,10 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
         <v>58</v>
@@ -7376,25 +7376,25 @@
         <v>60</v>
       </c>
       <c r="H51" t="s">
+        <v>190</v>
+      </c>
+      <c r="I51" t="s">
         <v>191</v>
       </c>
-      <c r="I51" t="s">
-        <v>192</v>
-      </c>
       <c r="J51" t="s">
         <v>61</v>
       </c>
       <c r="L51" t="s">
+        <v>170</v>
+      </c>
+      <c r="M51" t="s">
         <v>171</v>
       </c>
-      <c r="M51" t="s">
-        <v>172</v>
-      </c>
       <c r="P51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R51" t="s">
         <v>62</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
         <v>58</v>
@@ -7447,25 +7447,25 @@
         <v>60</v>
       </c>
       <c r="H52" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" t="s">
         <v>191</v>
-      </c>
-      <c r="I52" t="s">
-        <v>192</v>
       </c>
       <c r="J52" t="s">
         <v>65</v>
       </c>
       <c r="L52" t="s">
+        <v>172</v>
+      </c>
+      <c r="M52" t="s">
         <v>173</v>
       </c>
-      <c r="M52" t="s">
-        <v>174</v>
-      </c>
       <c r="P52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R52" t="s">
         <v>69</v>
@@ -7506,10 +7506,10 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
@@ -7524,10 +7524,10 @@
         <v>60</v>
       </c>
       <c r="H53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" t="s">
         <v>191</v>
-      </c>
-      <c r="I53" t="s">
-        <v>192</v>
       </c>
       <c r="J53" t="s">
         <v>72</v>
@@ -7539,10 +7539,10 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R53" t="s">
         <v>69</v>
@@ -7580,10 +7580,10 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -7598,19 +7598,19 @@
         <v>60</v>
       </c>
       <c r="H54" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" t="s">
         <v>191</v>
-      </c>
-      <c r="I54" t="s">
-        <v>192</v>
       </c>
       <c r="J54" t="s">
         <v>76</v>
       </c>
       <c r="L54" t="s">
+        <v>174</v>
+      </c>
+      <c r="M54" t="s">
         <v>175</v>
-      </c>
-      <c r="M54" t="s">
-        <v>176</v>
       </c>
       <c r="R54" t="s">
         <v>69</v>
@@ -7654,10 +7654,10 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -7672,19 +7672,19 @@
         <v>60</v>
       </c>
       <c r="H55" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" t="s">
         <v>191</v>
-      </c>
-      <c r="I55" t="s">
-        <v>192</v>
       </c>
       <c r="J55" t="s">
         <v>83</v>
       </c>
       <c r="L55" t="s">
+        <v>176</v>
+      </c>
+      <c r="M55" t="s">
         <v>177</v>
-      </c>
-      <c r="M55" t="s">
-        <v>178</v>
       </c>
       <c r="R55" t="s">
         <v>69</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -7743,19 +7743,19 @@
         <v>60</v>
       </c>
       <c r="H56" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" t="s">
         <v>191</v>
-      </c>
-      <c r="I56" t="s">
-        <v>192</v>
       </c>
       <c r="J56" t="s">
         <v>86</v>
       </c>
       <c r="L56" t="s">
+        <v>176</v>
+      </c>
+      <c r="M56" t="s">
         <v>177</v>
-      </c>
-      <c r="M56" t="s">
-        <v>178</v>
       </c>
       <c r="R56" t="s">
         <v>69</v>
@@ -7796,10 +7796,10 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
@@ -7814,10 +7814,10 @@
         <v>60</v>
       </c>
       <c r="H57" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" t="s">
         <v>191</v>
-      </c>
-      <c r="I57" t="s">
-        <v>192</v>
       </c>
       <c r="J57" t="s">
         <v>87</v>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
         <v>58</v>
@@ -7867,25 +7867,25 @@
         <v>60</v>
       </c>
       <c r="H58" t="s">
+        <v>192</v>
+      </c>
+      <c r="I58" t="s">
         <v>193</v>
       </c>
-      <c r="I58" t="s">
-        <v>194</v>
-      </c>
       <c r="J58" t="s">
         <v>61</v>
       </c>
       <c r="L58" t="s">
+        <v>170</v>
+      </c>
+      <c r="M58" t="s">
         <v>171</v>
       </c>
-      <c r="M58" t="s">
-        <v>172</v>
-      </c>
       <c r="P58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R58" t="s">
         <v>62</v>
@@ -7923,10 +7923,10 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
@@ -7938,25 +7938,25 @@
         <v>60</v>
       </c>
       <c r="H59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" t="s">
         <v>193</v>
-      </c>
-      <c r="I59" t="s">
-        <v>194</v>
       </c>
       <c r="J59" t="s">
         <v>65</v>
       </c>
       <c r="L59" t="s">
+        <v>172</v>
+      </c>
+      <c r="M59" t="s">
         <v>173</v>
       </c>
-      <c r="M59" t="s">
-        <v>174</v>
-      </c>
       <c r="P59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R59" t="s">
         <v>69</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
@@ -8015,10 +8015,10 @@
         <v>60</v>
       </c>
       <c r="H60" t="s">
+        <v>192</v>
+      </c>
+      <c r="I60" t="s">
         <v>193</v>
-      </c>
-      <c r="I60" t="s">
-        <v>194</v>
       </c>
       <c r="J60" t="s">
         <v>72</v>
@@ -8030,10 +8030,10 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R60" t="s">
         <v>69</v>
@@ -8071,10 +8071,10 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
@@ -8089,19 +8089,19 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
+        <v>192</v>
+      </c>
+      <c r="I61" t="s">
         <v>193</v>
-      </c>
-      <c r="I61" t="s">
-        <v>194</v>
       </c>
       <c r="J61" t="s">
         <v>76</v>
       </c>
       <c r="L61" t="s">
+        <v>174</v>
+      </c>
+      <c r="M61" t="s">
         <v>175</v>
-      </c>
-      <c r="M61" t="s">
-        <v>176</v>
       </c>
       <c r="R61" t="s">
         <v>69</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -8163,19 +8163,19 @@
         <v>60</v>
       </c>
       <c r="H62" t="s">
+        <v>192</v>
+      </c>
+      <c r="I62" t="s">
         <v>193</v>
-      </c>
-      <c r="I62" t="s">
-        <v>194</v>
       </c>
       <c r="J62" t="s">
         <v>83</v>
       </c>
       <c r="L62" t="s">
+        <v>176</v>
+      </c>
+      <c r="M62" t="s">
         <v>177</v>
-      </c>
-      <c r="M62" t="s">
-        <v>178</v>
       </c>
       <c r="R62" t="s">
         <v>69</v>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -8234,19 +8234,19 @@
         <v>60</v>
       </c>
       <c r="H63" t="s">
+        <v>192</v>
+      </c>
+      <c r="I63" t="s">
         <v>193</v>
-      </c>
-      <c r="I63" t="s">
-        <v>194</v>
       </c>
       <c r="J63" t="s">
         <v>86</v>
       </c>
       <c r="L63" t="s">
+        <v>176</v>
+      </c>
+      <c r="M63" t="s">
         <v>177</v>
-      </c>
-      <c r="M63" t="s">
-        <v>178</v>
       </c>
       <c r="R63" t="s">
         <v>69</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -8305,10 +8305,10 @@
         <v>60</v>
       </c>
       <c r="H64" t="s">
+        <v>192</v>
+      </c>
+      <c r="I64" t="s">
         <v>193</v>
-      </c>
-      <c r="I64" t="s">
-        <v>194</v>
       </c>
       <c r="J64" t="s">
         <v>87</v>
@@ -8343,10 +8343,10 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
         <v>58</v>
@@ -8358,25 +8358,25 @@
         <v>60</v>
       </c>
       <c r="H65" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" t="s">
         <v>195</v>
       </c>
-      <c r="I65" t="s">
-        <v>196</v>
-      </c>
       <c r="J65" t="s">
         <v>61</v>
       </c>
       <c r="L65" t="s">
+        <v>170</v>
+      </c>
+      <c r="M65" t="s">
         <v>171</v>
       </c>
-      <c r="M65" t="s">
-        <v>172</v>
-      </c>
       <c r="P65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R65" t="s">
         <v>62</v>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
         <v>58</v>
@@ -8429,25 +8429,25 @@
         <v>60</v>
       </c>
       <c r="H66" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" t="s">
         <v>195</v>
-      </c>
-      <c r="I66" t="s">
-        <v>196</v>
       </c>
       <c r="J66" t="s">
         <v>65</v>
       </c>
       <c r="L66" t="s">
+        <v>172</v>
+      </c>
+      <c r="M66" t="s">
         <v>173</v>
       </c>
-      <c r="M66" t="s">
-        <v>174</v>
-      </c>
       <c r="P66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R66" t="s">
         <v>69</v>
@@ -8488,10 +8488,10 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -8506,10 +8506,10 @@
         <v>60</v>
       </c>
       <c r="H67" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" t="s">
         <v>195</v>
-      </c>
-      <c r="I67" t="s">
-        <v>196</v>
       </c>
       <c r="J67" t="s">
         <v>72</v>
@@ -8521,10 +8521,10 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R67" t="s">
         <v>69</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -8580,19 +8580,19 @@
         <v>60</v>
       </c>
       <c r="H68" t="s">
+        <v>194</v>
+      </c>
+      <c r="I68" t="s">
         <v>195</v>
-      </c>
-      <c r="I68" t="s">
-        <v>196</v>
       </c>
       <c r="J68" t="s">
         <v>76</v>
       </c>
       <c r="L68" t="s">
+        <v>174</v>
+      </c>
+      <c r="M68" t="s">
         <v>175</v>
-      </c>
-      <c r="M68" t="s">
-        <v>176</v>
       </c>
       <c r="R68" t="s">
         <v>69</v>
@@ -8636,10 +8636,10 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -8654,19 +8654,19 @@
         <v>60</v>
       </c>
       <c r="H69" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" t="s">
         <v>195</v>
-      </c>
-      <c r="I69" t="s">
-        <v>196</v>
       </c>
       <c r="J69" t="s">
         <v>83</v>
       </c>
       <c r="L69" t="s">
+        <v>176</v>
+      </c>
+      <c r="M69" t="s">
         <v>177</v>
-      </c>
-      <c r="M69" t="s">
-        <v>178</v>
       </c>
       <c r="R69" t="s">
         <v>69</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -8725,19 +8725,19 @@
         <v>60</v>
       </c>
       <c r="H70" t="s">
+        <v>194</v>
+      </c>
+      <c r="I70" t="s">
         <v>195</v>
-      </c>
-      <c r="I70" t="s">
-        <v>196</v>
       </c>
       <c r="J70" t="s">
         <v>86</v>
       </c>
       <c r="L70" t="s">
+        <v>176</v>
+      </c>
+      <c r="M70" t="s">
         <v>177</v>
-      </c>
-      <c r="M70" t="s">
-        <v>178</v>
       </c>
       <c r="R70" t="s">
         <v>69</v>
@@ -8778,10 +8778,10 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
@@ -8796,10 +8796,10 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
+        <v>194</v>
+      </c>
+      <c r="I71" t="s">
         <v>195</v>
-      </c>
-      <c r="I71" t="s">
-        <v>196</v>
       </c>
       <c r="J71" t="s">
         <v>87</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
         <v>58</v>
@@ -8849,25 +8849,25 @@
         <v>60</v>
       </c>
       <c r="H72" t="s">
+        <v>196</v>
+      </c>
+      <c r="I72" t="s">
         <v>197</v>
       </c>
-      <c r="I72" t="s">
-        <v>198</v>
-      </c>
       <c r="J72" t="s">
         <v>61</v>
       </c>
       <c r="L72" t="s">
+        <v>170</v>
+      </c>
+      <c r="M72" t="s">
         <v>171</v>
       </c>
-      <c r="M72" t="s">
-        <v>172</v>
-      </c>
       <c r="P72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R72" t="s">
         <v>62</v>
@@ -8905,10 +8905,10 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
         <v>58</v>
@@ -8920,25 +8920,25 @@
         <v>60</v>
       </c>
       <c r="H73" t="s">
+        <v>196</v>
+      </c>
+      <c r="I73" t="s">
         <v>197</v>
-      </c>
-      <c r="I73" t="s">
-        <v>198</v>
       </c>
       <c r="J73" t="s">
         <v>65</v>
       </c>
       <c r="L73" t="s">
+        <v>172</v>
+      </c>
+      <c r="M73" t="s">
         <v>173</v>
       </c>
-      <c r="M73" t="s">
-        <v>174</v>
-      </c>
       <c r="P73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R73" t="s">
         <v>69</v>
@@ -8979,10 +8979,10 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
         <v>51</v>
@@ -8997,10 +8997,10 @@
         <v>60</v>
       </c>
       <c r="H74" t="s">
+        <v>196</v>
+      </c>
+      <c r="I74" t="s">
         <v>197</v>
-      </c>
-      <c r="I74" t="s">
-        <v>198</v>
       </c>
       <c r="J74" t="s">
         <v>72</v>
@@ -9012,10 +9012,10 @@
         <v>91</v>
       </c>
       <c r="P74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R74" t="s">
         <v>69</v>
@@ -9053,10 +9053,10 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -9071,19 +9071,19 @@
         <v>60</v>
       </c>
       <c r="H75" t="s">
+        <v>196</v>
+      </c>
+      <c r="I75" t="s">
         <v>197</v>
-      </c>
-      <c r="I75" t="s">
-        <v>198</v>
       </c>
       <c r="J75" t="s">
         <v>76</v>
       </c>
       <c r="L75" t="s">
+        <v>174</v>
+      </c>
+      <c r="M75" t="s">
         <v>175</v>
-      </c>
-      <c r="M75" t="s">
-        <v>176</v>
       </c>
       <c r="R75" t="s">
         <v>69</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
@@ -9145,19 +9145,19 @@
         <v>60</v>
       </c>
       <c r="H76" t="s">
+        <v>196</v>
+      </c>
+      <c r="I76" t="s">
         <v>197</v>
-      </c>
-      <c r="I76" t="s">
-        <v>198</v>
       </c>
       <c r="J76" t="s">
         <v>83</v>
       </c>
       <c r="L76" t="s">
+        <v>176</v>
+      </c>
+      <c r="M76" t="s">
         <v>177</v>
-      </c>
-      <c r="M76" t="s">
-        <v>178</v>
       </c>
       <c r="R76" t="s">
         <v>69</v>
@@ -9198,10 +9198,10 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
@@ -9216,19 +9216,19 @@
         <v>60</v>
       </c>
       <c r="H77" t="s">
+        <v>196</v>
+      </c>
+      <c r="I77" t="s">
         <v>197</v>
-      </c>
-      <c r="I77" t="s">
-        <v>198</v>
       </c>
       <c r="J77" t="s">
         <v>86</v>
       </c>
       <c r="L77" t="s">
+        <v>176</v>
+      </c>
+      <c r="M77" t="s">
         <v>177</v>
-      </c>
-      <c r="M77" t="s">
-        <v>178</v>
       </c>
       <c r="R77" t="s">
         <v>69</v>
@@ -9269,10 +9269,10 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -9287,10 +9287,10 @@
         <v>60</v>
       </c>
       <c r="H78" t="s">
+        <v>196</v>
+      </c>
+      <c r="I78" t="s">
         <v>197</v>
-      </c>
-      <c r="I78" t="s">
-        <v>198</v>
       </c>
       <c r="J78" t="s">
         <v>87</v>
@@ -9325,10 +9325,10 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
         <v>58</v>
@@ -9340,25 +9340,25 @@
         <v>60</v>
       </c>
       <c r="H79" t="s">
+        <v>198</v>
+      </c>
+      <c r="I79" t="s">
         <v>199</v>
       </c>
-      <c r="I79" t="s">
-        <v>200</v>
-      </c>
       <c r="J79" t="s">
         <v>61</v>
       </c>
       <c r="L79" t="s">
+        <v>170</v>
+      </c>
+      <c r="M79" t="s">
         <v>171</v>
       </c>
-      <c r="M79" t="s">
-        <v>172</v>
-      </c>
       <c r="P79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R79" t="s">
         <v>62</v>
@@ -9396,10 +9396,10 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
         <v>58</v>
@@ -9411,25 +9411,25 @@
         <v>60</v>
       </c>
       <c r="H80" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80" t="s">
         <v>199</v>
-      </c>
-      <c r="I80" t="s">
-        <v>200</v>
       </c>
       <c r="J80" t="s">
         <v>65</v>
       </c>
       <c r="L80" t="s">
+        <v>172</v>
+      </c>
+      <c r="M80" t="s">
         <v>173</v>
       </c>
-      <c r="M80" t="s">
-        <v>174</v>
-      </c>
       <c r="P80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R80" t="s">
         <v>69</v>
@@ -9470,10 +9470,10 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
         <v>51</v>
@@ -9488,10 +9488,10 @@
         <v>60</v>
       </c>
       <c r="H81" t="s">
+        <v>198</v>
+      </c>
+      <c r="I81" t="s">
         <v>199</v>
-      </c>
-      <c r="I81" t="s">
-        <v>200</v>
       </c>
       <c r="J81" t="s">
         <v>72</v>
@@ -9503,10 +9503,10 @@
         <v>91</v>
       </c>
       <c r="P81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R81" t="s">
         <v>69</v>
@@ -9544,10 +9544,10 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
@@ -9562,19 +9562,19 @@
         <v>60</v>
       </c>
       <c r="H82" t="s">
+        <v>198</v>
+      </c>
+      <c r="I82" t="s">
         <v>199</v>
-      </c>
-      <c r="I82" t="s">
-        <v>200</v>
       </c>
       <c r="J82" t="s">
         <v>76</v>
       </c>
       <c r="L82" t="s">
+        <v>174</v>
+      </c>
+      <c r="M82" t="s">
         <v>175</v>
-      </c>
-      <c r="M82" t="s">
-        <v>176</v>
       </c>
       <c r="R82" t="s">
         <v>69</v>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
@@ -9636,19 +9636,19 @@
         <v>60</v>
       </c>
       <c r="H83" t="s">
+        <v>198</v>
+      </c>
+      <c r="I83" t="s">
         <v>199</v>
-      </c>
-      <c r="I83" t="s">
-        <v>200</v>
       </c>
       <c r="J83" t="s">
         <v>83</v>
       </c>
       <c r="L83" t="s">
+        <v>176</v>
+      </c>
+      <c r="M83" t="s">
         <v>177</v>
-      </c>
-      <c r="M83" t="s">
-        <v>178</v>
       </c>
       <c r="R83" t="s">
         <v>69</v>
@@ -9689,10 +9689,10 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
@@ -9707,19 +9707,19 @@
         <v>60</v>
       </c>
       <c r="H84" t="s">
+        <v>198</v>
+      </c>
+      <c r="I84" t="s">
         <v>199</v>
-      </c>
-      <c r="I84" t="s">
-        <v>200</v>
       </c>
       <c r="J84" t="s">
         <v>86</v>
       </c>
       <c r="L84" t="s">
+        <v>176</v>
+      </c>
+      <c r="M84" t="s">
         <v>177</v>
-      </c>
-      <c r="M84" t="s">
-        <v>178</v>
       </c>
       <c r="R84" t="s">
         <v>69</v>
@@ -9760,10 +9760,10 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -9778,10 +9778,10 @@
         <v>60</v>
       </c>
       <c r="H85" t="s">
+        <v>198</v>
+      </c>
+      <c r="I85" t="s">
         <v>199</v>
-      </c>
-      <c r="I85" t="s">
-        <v>200</v>
       </c>
       <c r="J85" t="s">
         <v>87</v>
@@ -9816,10 +9816,10 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D86" t="s">
         <v>58</v>
@@ -9831,25 +9831,25 @@
         <v>60</v>
       </c>
       <c r="H86" t="s">
+        <v>200</v>
+      </c>
+      <c r="I86" t="s">
         <v>201</v>
       </c>
-      <c r="I86" t="s">
-        <v>202</v>
-      </c>
       <c r="J86" t="s">
         <v>61</v>
       </c>
       <c r="L86" t="s">
+        <v>170</v>
+      </c>
+      <c r="M86" t="s">
         <v>171</v>
       </c>
-      <c r="M86" t="s">
-        <v>172</v>
-      </c>
       <c r="P86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R86" t="s">
         <v>62</v>
@@ -9887,10 +9887,10 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
         <v>58</v>
@@ -9902,25 +9902,25 @@
         <v>60</v>
       </c>
       <c r="H87" t="s">
+        <v>200</v>
+      </c>
+      <c r="I87" t="s">
         <v>201</v>
-      </c>
-      <c r="I87" t="s">
-        <v>202</v>
       </c>
       <c r="J87" t="s">
         <v>65</v>
       </c>
       <c r="L87" t="s">
+        <v>172</v>
+      </c>
+      <c r="M87" t="s">
         <v>173</v>
       </c>
-      <c r="M87" t="s">
-        <v>174</v>
-      </c>
       <c r="P87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R87" t="s">
         <v>69</v>
@@ -9961,10 +9961,10 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
         <v>51</v>
@@ -9979,10 +9979,10 @@
         <v>60</v>
       </c>
       <c r="H88" t="s">
+        <v>200</v>
+      </c>
+      <c r="I88" t="s">
         <v>201</v>
-      </c>
-      <c r="I88" t="s">
-        <v>202</v>
       </c>
       <c r="J88" t="s">
         <v>72</v>
@@ -9994,10 +9994,10 @@
         <v>91</v>
       </c>
       <c r="P88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R88" t="s">
         <v>69</v>
@@ -10035,10 +10035,10 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
@@ -10053,19 +10053,19 @@
         <v>60</v>
       </c>
       <c r="H89" t="s">
+        <v>200</v>
+      </c>
+      <c r="I89" t="s">
         <v>201</v>
-      </c>
-      <c r="I89" t="s">
-        <v>202</v>
       </c>
       <c r="J89" t="s">
         <v>76</v>
       </c>
       <c r="L89" t="s">
+        <v>174</v>
+      </c>
+      <c r="M89" t="s">
         <v>175</v>
-      </c>
-      <c r="M89" t="s">
-        <v>176</v>
       </c>
       <c r="R89" t="s">
         <v>69</v>
@@ -10109,10 +10109,10 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
@@ -10127,19 +10127,19 @@
         <v>60</v>
       </c>
       <c r="H90" t="s">
+        <v>200</v>
+      </c>
+      <c r="I90" t="s">
         <v>201</v>
-      </c>
-      <c r="I90" t="s">
-        <v>202</v>
       </c>
       <c r="J90" t="s">
         <v>83</v>
       </c>
       <c r="L90" t="s">
+        <v>176</v>
+      </c>
+      <c r="M90" t="s">
         <v>177</v>
-      </c>
-      <c r="M90" t="s">
-        <v>178</v>
       </c>
       <c r="R90" t="s">
         <v>69</v>
@@ -10180,10 +10180,10 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
@@ -10198,19 +10198,19 @@
         <v>60</v>
       </c>
       <c r="H91" t="s">
+        <v>200</v>
+      </c>
+      <c r="I91" t="s">
         <v>201</v>
-      </c>
-      <c r="I91" t="s">
-        <v>202</v>
       </c>
       <c r="J91" t="s">
         <v>86</v>
       </c>
       <c r="L91" t="s">
+        <v>176</v>
+      </c>
+      <c r="M91" t="s">
         <v>177</v>
-      </c>
-      <c r="M91" t="s">
-        <v>178</v>
       </c>
       <c r="R91" t="s">
         <v>69</v>
@@ -10251,10 +10251,10 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -10269,10 +10269,10 @@
         <v>60</v>
       </c>
       <c r="H92" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" t="s">
         <v>201</v>
-      </c>
-      <c r="I92" t="s">
-        <v>202</v>
       </c>
       <c r="J92" t="s">
         <v>87</v>
@@ -10307,10 +10307,10 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
         <v>58</v>
@@ -10322,25 +10322,25 @@
         <v>60</v>
       </c>
       <c r="H93" t="s">
+        <v>202</v>
+      </c>
+      <c r="I93" t="s">
         <v>203</v>
       </c>
-      <c r="I93" t="s">
-        <v>204</v>
-      </c>
       <c r="J93" t="s">
         <v>61</v>
       </c>
       <c r="L93" t="s">
+        <v>170</v>
+      </c>
+      <c r="M93" t="s">
         <v>171</v>
       </c>
-      <c r="M93" t="s">
-        <v>172</v>
-      </c>
       <c r="P93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R93" t="s">
         <v>62</v>
@@ -10378,10 +10378,10 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
         <v>58</v>
@@ -10393,25 +10393,25 @@
         <v>60</v>
       </c>
       <c r="H94" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94" t="s">
         <v>203</v>
-      </c>
-      <c r="I94" t="s">
-        <v>204</v>
       </c>
       <c r="J94" t="s">
         <v>65</v>
       </c>
       <c r="L94" t="s">
+        <v>172</v>
+      </c>
+      <c r="M94" t="s">
         <v>173</v>
       </c>
-      <c r="M94" t="s">
-        <v>174</v>
-      </c>
       <c r="P94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R94" t="s">
         <v>69</v>
@@ -10452,10 +10452,10 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
         <v>51</v>
@@ -10470,10 +10470,10 @@
         <v>60</v>
       </c>
       <c r="H95" t="s">
+        <v>202</v>
+      </c>
+      <c r="I95" t="s">
         <v>203</v>
-      </c>
-      <c r="I95" t="s">
-        <v>204</v>
       </c>
       <c r="J95" t="s">
         <v>72</v>
@@ -10485,10 +10485,10 @@
         <v>91</v>
       </c>
       <c r="P95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R95" t="s">
         <v>69</v>
@@ -10526,10 +10526,10 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
@@ -10544,19 +10544,19 @@
         <v>60</v>
       </c>
       <c r="H96" t="s">
+        <v>202</v>
+      </c>
+      <c r="I96" t="s">
         <v>203</v>
-      </c>
-      <c r="I96" t="s">
-        <v>204</v>
       </c>
       <c r="J96" t="s">
         <v>76</v>
       </c>
       <c r="L96" t="s">
+        <v>174</v>
+      </c>
+      <c r="M96" t="s">
         <v>175</v>
-      </c>
-      <c r="M96" t="s">
-        <v>176</v>
       </c>
       <c r="R96" t="s">
         <v>69</v>
@@ -10600,10 +10600,10 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
         <v>20</v>
@@ -10618,19 +10618,19 @@
         <v>60</v>
       </c>
       <c r="H97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" t="s">
         <v>203</v>
-      </c>
-      <c r="I97" t="s">
-        <v>204</v>
       </c>
       <c r="J97" t="s">
         <v>83</v>
       </c>
       <c r="L97" t="s">
+        <v>176</v>
+      </c>
+      <c r="M97" t="s">
         <v>177</v>
-      </c>
-      <c r="M97" t="s">
-        <v>178</v>
       </c>
       <c r="R97" t="s">
         <v>69</v>
@@ -10671,10 +10671,10 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
@@ -10689,19 +10689,19 @@
         <v>60</v>
       </c>
       <c r="H98" t="s">
+        <v>202</v>
+      </c>
+      <c r="I98" t="s">
         <v>203</v>
-      </c>
-      <c r="I98" t="s">
-        <v>204</v>
       </c>
       <c r="J98" t="s">
         <v>86</v>
       </c>
       <c r="L98" t="s">
+        <v>176</v>
+      </c>
+      <c r="M98" t="s">
         <v>177</v>
-      </c>
-      <c r="M98" t="s">
-        <v>178</v>
       </c>
       <c r="R98" t="s">
         <v>69</v>
@@ -10742,10 +10742,10 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
@@ -10760,10 +10760,10 @@
         <v>60</v>
       </c>
       <c r="H99" t="s">
+        <v>202</v>
+      </c>
+      <c r="I99" t="s">
         <v>203</v>
-      </c>
-      <c r="I99" t="s">
-        <v>204</v>
       </c>
       <c r="J99" t="s">
         <v>87</v>
@@ -10798,10 +10798,10 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
         <v>58</v>
@@ -10813,25 +10813,25 @@
         <v>60</v>
       </c>
       <c r="H100" t="s">
+        <v>204</v>
+      </c>
+      <c r="I100" t="s">
         <v>205</v>
       </c>
-      <c r="I100" t="s">
-        <v>206</v>
-      </c>
       <c r="J100" t="s">
         <v>61</v>
       </c>
       <c r="L100" t="s">
+        <v>170</v>
+      </c>
+      <c r="M100" t="s">
         <v>171</v>
       </c>
-      <c r="M100" t="s">
-        <v>172</v>
-      </c>
       <c r="P100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R100" t="s">
         <v>62</v>
@@ -10869,10 +10869,10 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D101" t="s">
         <v>58</v>
@@ -10884,25 +10884,25 @@
         <v>60</v>
       </c>
       <c r="H101" t="s">
+        <v>204</v>
+      </c>
+      <c r="I101" t="s">
         <v>205</v>
-      </c>
-      <c r="I101" t="s">
-        <v>206</v>
       </c>
       <c r="J101" t="s">
         <v>65</v>
       </c>
       <c r="L101" t="s">
+        <v>172</v>
+      </c>
+      <c r="M101" t="s">
         <v>173</v>
       </c>
-      <c r="M101" t="s">
-        <v>174</v>
-      </c>
       <c r="P101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R101" t="s">
         <v>69</v>
@@ -10943,10 +10943,10 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
         <v>51</v>
@@ -10961,10 +10961,10 @@
         <v>60</v>
       </c>
       <c r="H102" t="s">
+        <v>204</v>
+      </c>
+      <c r="I102" t="s">
         <v>205</v>
-      </c>
-      <c r="I102" t="s">
-        <v>206</v>
       </c>
       <c r="J102" t="s">
         <v>72</v>
@@ -10976,10 +10976,10 @@
         <v>91</v>
       </c>
       <c r="P102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R102" t="s">
         <v>69</v>
@@ -11017,10 +11017,10 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
@@ -11035,10 +11035,10 @@
         <v>60</v>
       </c>
       <c r="H103" t="s">
+        <v>204</v>
+      </c>
+      <c r="I103" t="s">
         <v>205</v>
-      </c>
-      <c r="I103" t="s">
-        <v>206</v>
       </c>
       <c r="J103" t="s">
         <v>76</v>
@@ -11085,10 +11085,10 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
@@ -11103,10 +11103,10 @@
         <v>60</v>
       </c>
       <c r="H104" t="s">
+        <v>204</v>
+      </c>
+      <c r="I104" t="s">
         <v>205</v>
-      </c>
-      <c r="I104" t="s">
-        <v>206</v>
       </c>
       <c r="J104" t="s">
         <v>83</v>
@@ -11150,10 +11150,10 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
@@ -11168,10 +11168,10 @@
         <v>60</v>
       </c>
       <c r="H105" t="s">
+        <v>204</v>
+      </c>
+      <c r="I105" t="s">
         <v>205</v>
-      </c>
-      <c r="I105" t="s">
-        <v>206</v>
       </c>
       <c r="J105" t="s">
         <v>86</v>
@@ -11215,10 +11215,10 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" t="s">
         <v>22</v>
@@ -11233,10 +11233,10 @@
         <v>60</v>
       </c>
       <c r="H106" t="s">
+        <v>204</v>
+      </c>
+      <c r="I106" t="s">
         <v>205</v>
-      </c>
-      <c r="I106" t="s">
-        <v>206</v>
       </c>
       <c r="J106" t="s">
         <v>87</v>

--- a/curation/draft/package12/R12_BC_SDTM_QRS_HAM-A.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_HAM-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915B1A3-F52F-475A-ABCE-361F4C4968E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FCABC5-5BF8-4879-A1BB-020B5E319B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SDTM_HAM-A" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_HAM-A'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_HAM-A'!$A$1:$S$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM_HAM-A'!$A$1:$AG$1</definedName>
     <definedName name="ExternalData_5" localSheetId="0" hidden="1">'BC_HAM-A'!#REF!</definedName>
   </definedNames>
@@ -1035,9 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7:H65"/>
+      <selection pane="bottomLeft" activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3772,7 +3772,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/curation/draft/package12/R12_BC_SDTM_QRS_HAM-A.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_HAM-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FCABC5-5BF8-4879-A1BB-020B5E319B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9E125-9649-4297-AC75-F3C2579F19D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SDTM_HAM-A" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_HAM-A'!$A$1:$S$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_HAM-A'!$A$1:$S$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM_HAM-A'!$A$1:$AG$1</definedName>
     <definedName name="ExternalData_5" localSheetId="0" hidden="1">'BC_HAM-A'!#REF!</definedName>
   </definedNames>
@@ -729,9 +729,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,8 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,41 +1031,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q59" sqref="Q59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1079,19 +1078,19 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1112,7 +1111,7 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -1122,2657 +1121,2652 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>164</v>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="9" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="I9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="I10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="I11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="I12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="I13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q13" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="I14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q14" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="I15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P15" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="F16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="I16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="I17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q17" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="I18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q18" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="I19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="F20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="I20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q20" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="21" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="F21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="I21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q21" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="F22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="I22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q22" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="F23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="I23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="I24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="25" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q25" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="I26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q26" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="I27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P27" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="I28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="29" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="I29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q29" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="I30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="31" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="I31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P31" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="32" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="F32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="I32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q32" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="33" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="F33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="I33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q33" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="F34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="I34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q34" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="F35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="I35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P35" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="I36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q36" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="37" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="I37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q37" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="38" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="I38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q38" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="39" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="F39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="I39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P39" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="I40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q40" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="41" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="F41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="I41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q41" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="F42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="I42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q42" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F41" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="I43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P43" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="I44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q44" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="45" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="I45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q45" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="46" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="I46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q46" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F45" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="I47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P47" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="48" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="I48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q48" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="49" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F49" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="I49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q49" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="50" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F48" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F50" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="I50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q50" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F49" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="F51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M49" t="s">
+      <c r="I51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P51" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="52" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F50" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="I52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q52" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="53" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F51" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F53" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="I53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q53" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C54" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F52" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="F54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="I54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q54" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="55" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="F55" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="I55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P55" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F54" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="F56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M54" t="s">
+      <c r="I56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q56" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="57" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="F57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="I57" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q57" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="58" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="F58" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="I58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q58" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="F59" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M57" t="s">
+      <c r="I59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P59" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="60" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F58" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="F60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="I60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O60" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="Q60" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F59" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="F61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="I61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O61" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="Q61" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C60" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C62" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F60" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="F62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="I62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P62" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q62" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C63" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F61" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="F63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="I63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P63" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" t="s">
-        <v>206</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="M62" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" t="s">
-        <v>52</v>
-      </c>
-      <c r="P62" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" t="s">
-        <v>153</v>
-      </c>
-      <c r="E63" t="s">
-        <v>94</v>
-      </c>
-      <c r="F63" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H63" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="M63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N63" t="s">
-        <v>19</v>
-      </c>
-      <c r="O63" t="s">
-        <v>53</v>
-      </c>
-      <c r="P63" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H64" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="M64" t="s">
-        <v>51</v>
-      </c>
-      <c r="N64" t="s">
-        <v>51</v>
-      </c>
-      <c r="O64" t="s">
-        <v>55</v>
-      </c>
-      <c r="P64" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" t="s">
-        <v>94</v>
-      </c>
-      <c r="F65" t="s">
-        <v>154</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H65" t="s">
-        <v>206</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="M65" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" t="s">
-        <v>56</v>
-      </c>
-      <c r="P65" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3821,104 +3815,104 @@
     <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
